--- a/AAII_Financials/Quarterly/NLSC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLSC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>NLSC</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,59 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,19 +887,22 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -890,17 +910,20 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,8 +964,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -950,11 +977,11 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -967,8 +994,11 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -979,11 +1009,11 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -996,8 +1026,11 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,8 +1072,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1050,11 +1087,11 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,23 +1136,26 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1125,8 +1168,11 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,8 +1232,11 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1195,11 +1247,11 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1212,8 +1264,11 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1224,11 +1279,11 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1241,8 +1296,11 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,8 +1456,11 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1398,11 +1471,11 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -1415,8 +1488,11 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,8 +1520,11 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1456,11 +1535,11 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -1473,42 +1552,48 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,13 +1619,14 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
+      <c r="D41" s="3">
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -1550,11 +1637,11 @@
       <c r="G41" s="3">
         <v>0</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -1562,8 +1649,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1678,13 +1777,16 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
+      <c r="D46" s="3">
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1841,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,8 +1873,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,13 +2033,16 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>4</v>
+      <c r="D54" s="3">
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,13 +2095,14 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -1994,45 +2125,51 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2052,19 +2189,22 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -2081,8 +2221,11 @@
       <c r="K60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,19 +2381,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,8 +2555,11 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2399,7 +2573,7 @@
         <v>-49500</v>
       </c>
       <c r="G72" s="3">
-        <v>-49100</v>
+        <v>-49500</v>
       </c>
       <c r="H72" s="3">
         <v>-49100</v>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3">
         <v>-49100</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>-49100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,19 +2683,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
+      <c r="D76" s="3">
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
       </c>
       <c r="F76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
         <v>-100</v>
@@ -2529,8 +2715,11 @@
       <c r="K76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,42 +2747,48 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2604,11 +2799,11 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -2621,8 +2816,11 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3022,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +3338,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3107,11 +3353,11 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -3124,8 +3370,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,13 +3402,16 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -3180,6 +3432,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLSC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLSC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>NLSC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,63 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,8 +752,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +787,11 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,11 +921,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -913,17 +933,20 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,8 +991,9 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -980,11 +1007,11 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -997,8 +1024,11 @@
       <c r="L17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1012,11 +1042,11 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1029,8 +1059,11 @@
       <c r="L18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1076,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1075,8 +1109,11 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1090,11 +1127,11 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
@@ -1107,8 +1144,11 @@
       <c r="L21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,8 +1179,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1154,11 +1197,11 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1171,8 +1214,11 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1249,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,13 +1284,16 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1250,11 +1302,11 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1267,13 +1319,16 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1282,11 +1337,11 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1299,8 +1354,11 @@
       <c r="L27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1494,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1459,13 +1529,16 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1474,11 +1547,11 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1491,8 +1564,11 @@
       <c r="L33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,13 +1599,16 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1538,11 +1617,11 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -1555,45 +1634,51 @@
       <c r="L35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,8 +1706,9 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1640,11 +1727,11 @@
       <c r="H41" s="3">
         <v>0</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -1652,8 +1739,11 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1774,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1844,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1780,8 +1879,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1812,8 +1914,11 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,8 +1949,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1876,8 +1984,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2089,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,13 +2159,16 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>0</v>
+      <c r="D54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -2068,8 +2194,11 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2226,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2128,8 +2259,11 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2139,29 +2273,32 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2171,8 +2308,8 @@
       <c r="E59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -2192,8 +2329,11 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2201,13 +2341,13 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
@@ -2224,8 +2364,11 @@
       <c r="L60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,8 +2399,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,8 +2539,11 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2393,13 +2551,13 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
@@ -2416,8 +2574,11 @@
       <c r="L66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,8 +2729,11 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2576,7 +2750,7 @@
         <v>-49500</v>
       </c>
       <c r="H72" s="3">
-        <v>-49100</v>
+        <v>-49500</v>
       </c>
       <c r="I72" s="3">
         <v>-49100</v>
@@ -2590,8 +2764,11 @@
       <c r="L72" s="3">
         <v>-49100</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>-49100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,8 +2869,11 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2695,13 +2881,13 @@
         <v>-100</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
       </c>
       <c r="G76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
         <v>-100</v>
@@ -2718,8 +2904,11 @@
       <c r="L76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,50 +2939,56 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -2802,11 +2997,11 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -2819,8 +3014,11 @@
       <c r="L81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3031,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,8 +3239,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3057,8 +3274,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3291,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3394,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3584,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3356,11 +3602,11 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -3373,8 +3619,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,8 +3654,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3435,6 +3687,9 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLSC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLSC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>NLSC</t>
   </si>
@@ -1292,8 +1292,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1327,8 +1327,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1537,8 +1537,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1607,8 +1607,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2167,8 +2167,8 @@
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>4</v>
+      <c r="D54" s="3">
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -2987,8 +2987,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/NLSC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLSC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>NLSC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,70 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,8 +762,14 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +803,14 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +844,14 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +865,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +902,14 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,43 +943,55 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1025,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,13 +1043,15 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1010,14 +1063,14 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -1027,8 +1080,14 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1045,14 +1104,14 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
@@ -1062,8 +1121,14 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1142,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1112,8 +1179,14 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1130,14 +1203,14 @@
         <v>0</v>
       </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
@@ -1147,8 +1220,14 @@
       <c r="M21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,13 +1261,19 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1200,14 +1285,14 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1217,8 +1302,14 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1343,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,13 +1384,19 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1305,14 +1408,14 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -1322,13 +1425,19 @@
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1340,14 +1449,14 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -1357,8 +1466,14 @@
       <c r="M27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1507,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1548,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1589,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1630,14 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1532,13 +1671,19 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1550,14 +1695,14 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -1567,8 +1712,14 @@
       <c r="M33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,13 +1753,19 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1620,14 +1777,14 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -1637,48 +1794,60 @@
       <c r="M35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1861,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,8 +1878,10 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1730,20 +1903,26 @@
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
+      <c r="L41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1956,14 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +1997,14 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +2038,14 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1882,8 +2079,14 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1917,8 +2120,14 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,8 +2161,14 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1987,8 +2202,14 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2243,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2284,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2325,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2366,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,8 +2407,14 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2197,8 +2448,14 @@
       <c r="M54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2469,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2486,10 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2262,43 +2523,55 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2311,11 +2584,11 @@
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -2332,8 +2605,14 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2344,16 +2623,16 @@
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
@@ -2367,8 +2646,14 @@
       <c r="M60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,8 +2687,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2728,14 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2769,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2810,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,8 +2851,14 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2554,16 +2869,16 @@
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
@@ -2577,8 +2892,14 @@
       <c r="M66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>100</v>
+      </c>
+      <c r="O66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2913,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2950,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2991,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3032,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,13 +3073,19 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-49500</v>
+        <v>-49600</v>
       </c>
       <c r="E72" s="3">
         <v>-49500</v>
@@ -2753,10 +3100,10 @@
         <v>-49500</v>
       </c>
       <c r="I72" s="3">
-        <v>-49100</v>
+        <v>-49500</v>
       </c>
       <c r="J72" s="3">
-        <v>-49100</v>
+        <v>-49500</v>
       </c>
       <c r="K72" s="3">
         <v>-49100</v>
@@ -2767,8 +3114,14 @@
       <c r="M72" s="3">
         <v>-49100</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-49100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3155,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3196,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,8 +3237,14 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2884,16 +3255,16 @@
         <v>-100</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3">
         <v>-100</v>
@@ -2907,8 +3278,14 @@
       <c r="M76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,53 +3319,65 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -3000,14 +3389,14 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -3017,8 +3406,14 @@
       <c r="M81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3427,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3464,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3505,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3546,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3587,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3628,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,13 +3669,19 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -3277,8 +3710,14 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3731,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3768,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3809,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3850,14 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3432,8 +3891,14 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3912,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3949,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3990,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4031,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,13 +4072,19 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -3605,14 +4096,14 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -3622,8 +4113,14 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,8 +4154,14 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3690,6 +4193,12 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLSC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLSC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>NLSC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,19 +966,22 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -969,11 +989,11 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -981,17 +1001,20 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,8 +1071,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1054,7 +1081,7 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1069,11 +1096,11 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1086,8 +1113,11 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,7 +1125,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1110,11 +1140,11 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1127,8 +1157,11 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,8 +1219,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1209,11 +1246,11 @@
         <v>0</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
@@ -1226,31 +1263,34 @@
       <c r="O21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1267,8 +1307,11 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1276,7 +1319,7 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1291,11 +1334,11 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1308,8 +1351,11 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,8 +1439,11 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1399,7 +1451,7 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1414,11 +1466,11 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1431,8 +1483,11 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1440,7 +1495,7 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1455,11 +1510,11 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1472,8 +1527,11 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1677,8 +1747,11 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1686,7 +1759,7 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1701,11 +1774,11 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -1718,8 +1791,11 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,8 +1835,11 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1768,7 +1847,7 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1783,11 +1862,11 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -1800,54 +1879,60 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1909,11 +1996,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2085,8 +2184,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,31 +2272,34 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2208,8 +2316,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,8 +2536,11 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,13 +2618,14 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -2529,8 +2660,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2541,7 +2675,7 @@
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2549,34 +2683,37 @@
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>0</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>4</v>
@@ -2590,8 +2727,8 @@
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -2611,13 +2748,16 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
@@ -2629,13 +2769,13 @@
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>0</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
@@ -2652,8 +2792,11 @@
       <c r="O60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,31 +2836,34 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,13 +3012,16 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
@@ -2875,13 +3033,13 @@
         <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,16 +3250,19 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-49600</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-49500</v>
       </c>
       <c r="F72" s="3">
         <v>-49500</v>
@@ -3106,7 +3280,7 @@
         <v>-49500</v>
       </c>
       <c r="K72" s="3">
-        <v>-49100</v>
+        <v>-49500</v>
       </c>
       <c r="L72" s="3">
         <v>-49100</v>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3">
         <v>-49100</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>-49100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,13 +3426,16 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-100</v>
+        <v>-1400</v>
       </c>
       <c r="E76" s="3">
         <v>-100</v>
@@ -3261,13 +3447,13 @@
         <v>-100</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
       <c r="J76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>-100</v>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,54 +3514,60 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3380,7 +3575,7 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -3395,11 +3590,11 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -3412,8 +3607,11 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,17 +3889,20 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,17 +4321,20 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -4102,11 +4348,11 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4119,8 +4365,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4199,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLSC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLSC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>NLSC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -980,11 +1000,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -992,11 +1012,11 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1004,17 +1024,20 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,19 +1098,20 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -1099,11 +1126,11 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1116,8 +1143,11 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1128,7 +1158,7 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1143,11 +1173,11 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1160,8 +1190,11 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1256,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1234,7 +1271,7 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -1249,11 +1286,11 @@
         <v>0</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
@@ -1266,16 +1303,19 @@
       <c r="P21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -1292,8 +1332,8 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1310,19 +1350,22 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1337,11 +1380,11 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1354,8 +1397,11 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,19 +1491,22 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -1469,11 +1521,11 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1486,19 +1538,22 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -1513,11 +1568,11 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1530,8 +1585,11 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,19 +1820,22 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -1777,11 +1850,11 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -1794,8 +1867,11 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,19 +1914,22 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -1865,11 +1944,11 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -1882,57 +1961,63 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2053,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1999,11 +2086,11 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,16 +2380,19 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
+      <c r="E48" s="3">
+        <v>0</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
@@ -2301,8 +2409,8 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2662,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,17 +2749,18 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2678,7 +2812,7 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2686,37 +2820,40 @@
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>4</v>
@@ -2730,8 +2867,8 @@
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2751,16 +2888,19 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
@@ -2772,13 +2912,13 @@
         <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,16 +2982,19 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
@@ -2865,8 +3011,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,16 +3170,19 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1500</v>
-      </c>
-      <c r="E66" s="3">
-        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>100</v>
@@ -3036,13 +3194,13 @@
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
       </c>
       <c r="K66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,19 +3424,22 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-49700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-49600</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-49500</v>
       </c>
       <c r="G72" s="3">
         <v>-49500</v>
@@ -3283,7 +3457,7 @@
         <v>-49500</v>
       </c>
       <c r="L72" s="3">
-        <v>-49100</v>
+        <v>-49500</v>
       </c>
       <c r="M72" s="3">
         <v>-49100</v>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3">
         <v>-49100</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-49100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,16 +3612,19 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1400</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-100</v>
       </c>
       <c r="F76" s="3">
         <v>-100</v>
@@ -3450,13 +3636,13 @@
         <v>-100</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
       <c r="K76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L76" s="3">
         <v>-100</v>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,68 +3706,74 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -3593,11 +3788,11 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -3610,8 +3805,11 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4106,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3901,11 +4118,11 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,11 +4579,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -4351,11 +4597,11 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4368,31 +4614,34 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>
